--- a/data/trans_orig/P38A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB274FE-9C77-4F36-A17D-C080B20F7888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B0314A2-6FB6-4826-AE40-56DED4C2E3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B66ADF9D-C9FD-428B-9D43-070B97BED86C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F860E66-24D3-4710-9DD6-06F809C00BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="320">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>87,65%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>88,67%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -196,10 +196,10 @@
     <t>83,25%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>88,33%</t>
@@ -208,31 +208,31 @@
     <t>86,07%</t>
   </si>
   <si>
-    <t>90,23%</t>
+    <t>90,34%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>9,77%</t>
+    <t>9,66%</t>
   </si>
   <si>
     <t>13,93%</t>
@@ -241,10 +241,10 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -253,787 +253,751 @@
     <t>85,21%</t>
   </si>
   <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>84,86%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>15,14%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6EE822-CFDF-4B96-8050-05B9AE488EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230658B2-3611-43C6-9EF9-1ED06C3F075D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2040,7 +2004,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>632</v>
@@ -2049,13 +2013,13 @@
         <v>697764</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1212</v>
@@ -2064,13 +2028,13 @@
         <v>1338409</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2049,13 @@
         <v>111174</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -2100,13 +2064,13 @@
         <v>74669</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -2115,13 +2079,13 @@
         <v>185843</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2141,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2189,13 +2153,13 @@
         <v>807422</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>906</v>
@@ -2204,13 +2168,13 @@
         <v>953172</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1675</v>
@@ -2219,13 +2183,13 @@
         <v>1760594</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2204,13 @@
         <v>133124</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -2255,13 +2219,13 @@
         <v>93858</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>226</v>
@@ -2270,13 +2234,13 @@
         <v>226982</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2308,13 @@
         <v>2903265</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2938</v>
@@ -2359,28 +2323,28 @@
         <v>3178406</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5645</v>
       </c>
       <c r="N19" s="7">
-        <v>6081670</v>
+        <v>6081671</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2359,13 @@
         <v>500113</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>348</v>
@@ -2410,13 +2374,13 @@
         <v>366329</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>827</v>
@@ -2425,13 +2389,13 @@
         <v>866442</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,7 +2437,7 @@
         <v>6472</v>
       </c>
       <c r="N21" s="7">
-        <v>6948112</v>
+        <v>6948113</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2487,7 +2451,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA3A295-0173-48FD-B307-BB8E607DE3F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5DE7ED-3D66-40AA-B683-1EF77B18F0FE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2525,7 +2489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2632,13 +2596,13 @@
         <v>105756</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -2647,13 +2611,13 @@
         <v>102206</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>206</v>
@@ -2662,13 +2626,13 @@
         <v>207962</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2647,13 @@
         <v>10790</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -2698,13 +2662,13 @@
         <v>11154</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -2713,13 +2677,13 @@
         <v>21944</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2751,13 @@
         <v>466702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2802,13 +2766,13 @@
         <v>498753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>942</v>
@@ -2817,13 +2781,13 @@
         <v>965453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2802,13 @@
         <v>87661</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -2853,13 +2817,13 @@
         <v>58981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -2868,13 +2832,13 @@
         <v>146643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2906,13 @@
         <v>840040</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -2957,13 +2921,13 @@
         <v>958700</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>1676</v>
@@ -2972,13 +2936,13 @@
         <v>1798739</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2957,13 @@
         <v>176232</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
@@ -3008,13 +2972,13 @@
         <v>81225</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>244</v>
@@ -3023,13 +2987,13 @@
         <v>257458</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3061,13 @@
         <v>626351</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>667</v>
@@ -3112,13 +3076,13 @@
         <v>715383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>1242</v>
@@ -3127,13 +3091,13 @@
         <v>1341734</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3112,13 @@
         <v>123592</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -3163,13 +3127,13 @@
         <v>68699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>181</v>
@@ -3178,13 +3142,13 @@
         <v>192291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3204,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3252,13 +3216,13 @@
         <v>777452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>821</v>
@@ -3267,13 +3231,13 @@
         <v>900142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>1596</v>
@@ -3282,13 +3246,13 @@
         <v>1677595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3267,13 @@
         <v>155135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -3318,13 +3282,13 @@
         <v>139403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -3333,13 +3297,13 @@
         <v>294538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3371,13 @@
         <v>2816300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>2970</v>
@@ -3422,13 +3386,13 @@
         <v>3175183</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>5662</v>
@@ -3437,13 +3401,13 @@
         <v>5991483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3422,13 @@
         <v>553411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -3473,28 +3437,28 @@
         <v>359463</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>877</v>
       </c>
       <c r="N20" s="7">
-        <v>912874</v>
+        <v>912873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,7 +3500,7 @@
         <v>6539</v>
       </c>
       <c r="N21" s="7">
-        <v>6904357</v>
+        <v>6904356</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3550,7 +3514,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3FFDB-6C29-4F56-A1EA-87805699E74E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CE5A9-8BE9-4755-AE80-5D102C96CA20}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3695,13 +3659,13 @@
         <v>97208</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>231</v>
@@ -3710,13 +3674,13 @@
         <v>120819</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>345</v>
@@ -3725,13 +3689,13 @@
         <v>218027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3710,13 @@
         <v>4774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3761,13 +3725,13 @@
         <v>9914</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3776,13 +3740,13 @@
         <v>14688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3814,13 @@
         <v>485084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>942</v>
@@ -3865,13 +3829,13 @@
         <v>547326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>1506</v>
@@ -3880,13 +3844,13 @@
         <v>1032410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3865,13 @@
         <v>64739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -3916,13 +3880,13 @@
         <v>45229</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -3931,13 +3895,13 @@
         <v>109968</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3969,13 @@
         <v>809335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>1379</v>
@@ -4020,13 +3984,13 @@
         <v>927240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>2205</v>
@@ -4035,13 +3999,13 @@
         <v>1736575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4020,13 @@
         <v>229913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -4071,13 +4035,13 @@
         <v>132234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>275</v>
@@ -4086,13 +4050,13 @@
         <v>362147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4124,13 @@
         <v>609457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>970</v>
@@ -4175,13 +4139,13 @@
         <v>795073</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>1562</v>
@@ -4190,13 +4154,13 @@
         <v>1404529</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4175,13 @@
         <v>119315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -4226,13 +4190,13 @@
         <v>79298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -4241,13 +4205,13 @@
         <v>198613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4267,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4315,13 +4279,13 @@
         <v>774887</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>1404</v>
@@ -4330,13 +4294,13 @@
         <v>978588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>2258</v>
@@ -4345,13 +4309,13 @@
         <v>1753475</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4330,13 @@
         <v>190516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4381,13 +4345,13 @@
         <v>171844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -4396,13 +4360,13 @@
         <v>362360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4434,13 @@
         <v>2775971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>4926</v>
@@ -4485,13 +4449,13 @@
         <v>3369045</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>7876</v>
@@ -4500,13 +4464,13 @@
         <v>6145016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4485,13 @@
         <v>609257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
@@ -4536,13 +4500,13 @@
         <v>438519</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>863</v>
@@ -4551,13 +4515,13 @@
         <v>1047776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4577,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B0314A2-6FB6-4826-AE40-56DED4C2E3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCF1B50-9E8A-4C86-A2CF-77473A89350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F860E66-24D3-4710-9DD6-06F809C00BF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{778A7FBA-323D-48BB-B319-ADD5E338725E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="332">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,724 +76,760 @@
     <t>87,65%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
     <t>83,39%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>12,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
   </si>
   <si>
     <t>77,88%</t>
@@ -1409,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230658B2-3611-43C6-9EF9-1ED06C3F075D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8C694-03BA-4AAC-BC5C-15BCF2D94E47}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,7 +2040,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>632</v>
@@ -2013,13 +2049,13 @@
         <v>697764</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1212</v>
@@ -2028,13 +2064,13 @@
         <v>1338409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2085,13 @@
         <v>111174</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -2064,13 +2100,13 @@
         <v>74669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -2079,13 +2115,13 @@
         <v>185843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2177,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2189,13 @@
         <v>807422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>906</v>
@@ -2168,13 +2204,13 @@
         <v>953172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1675</v>
@@ -2183,13 +2219,13 @@
         <v>1760594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2240,13 @@
         <v>133124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -2219,13 +2255,13 @@
         <v>93858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>226</v>
@@ -2234,13 +2270,13 @@
         <v>226982</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2344,13 @@
         <v>2903265</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2938</v>
@@ -2323,28 +2359,28 @@
         <v>3178406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5645</v>
       </c>
       <c r="N19" s="7">
-        <v>6081671</v>
+        <v>6081670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2395,13 @@
         <v>500113</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>348</v>
@@ -2374,13 +2410,13 @@
         <v>366329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>827</v>
@@ -2389,13 +2425,13 @@
         <v>866442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,7 +2473,7 @@
         <v>6472</v>
       </c>
       <c r="N21" s="7">
-        <v>6948113</v>
+        <v>6948112</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2451,7 +2487,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +2508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5DE7ED-3D66-40AA-B683-1EF77B18F0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28737376-43F9-4D03-845D-E8C23200266E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2489,7 +2525,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2596,13 +2632,13 @@
         <v>105756</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -2611,13 +2647,13 @@
         <v>102206</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>206</v>
@@ -2626,13 +2662,13 @@
         <v>207962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2683,7 @@
         <v>10790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>135</v>
@@ -2757,7 +2793,7 @@
         <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2766,13 +2802,13 @@
         <v>498753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>942</v>
@@ -2781,13 +2817,13 @@
         <v>965453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2838,13 @@
         <v>87661</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -2817,13 +2853,13 @@
         <v>58981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -2832,13 +2868,13 @@
         <v>146643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2942,13 @@
         <v>840040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -2921,13 +2957,13 @@
         <v>958700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>1676</v>
@@ -2936,13 +2972,13 @@
         <v>1798739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2993,13 @@
         <v>176232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
@@ -2972,13 +3008,13 @@
         <v>81225</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>244</v>
@@ -2987,13 +3023,13 @@
         <v>257458</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3097,13 @@
         <v>626351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>667</v>
@@ -3076,13 +3112,13 @@
         <v>715383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>1242</v>
@@ -3091,13 +3127,13 @@
         <v>1341734</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3148,13 @@
         <v>123592</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -3127,13 +3163,13 @@
         <v>68699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>181</v>
@@ -3142,13 +3178,13 @@
         <v>192291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,7 +3240,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3216,13 +3252,13 @@
         <v>777452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>821</v>
@@ -3231,13 +3267,13 @@
         <v>900142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>1596</v>
@@ -3246,13 +3282,13 @@
         <v>1677595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3303,13 @@
         <v>155135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -3282,13 +3318,13 @@
         <v>139403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -3297,13 +3333,13 @@
         <v>294538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3407,13 @@
         <v>2816300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>2970</v>
@@ -3386,13 +3422,13 @@
         <v>3175183</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>5662</v>
@@ -3401,13 +3437,13 @@
         <v>5991483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3458,13 @@
         <v>553411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -3437,13 +3473,13 @@
         <v>359463</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>877</v>
@@ -3452,13 +3488,13 @@
         <v>912873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3550,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CE5A9-8BE9-4755-AE80-5D102C96CA20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA55117A-27CC-4B70-AC2F-0074207B70D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3552,7 +3588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3659,13 +3695,13 @@
         <v>97208</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>231</v>
@@ -3674,13 +3710,13 @@
         <v>120819</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>345</v>
@@ -3689,13 +3725,13 @@
         <v>218027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3746,13 @@
         <v>4774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3725,13 +3761,13 @@
         <v>9914</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3740,13 +3776,13 @@
         <v>14688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3850,13 @@
         <v>485084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>942</v>
@@ -3829,13 +3865,13 @@
         <v>547326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>1506</v>
@@ -3844,13 +3880,13 @@
         <v>1032410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3901,13 @@
         <v>64739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -3880,13 +3916,13 @@
         <v>45229</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -3895,13 +3931,13 @@
         <v>109968</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +4005,13 @@
         <v>809335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>1379</v>
@@ -3984,13 +4020,13 @@
         <v>927240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>2205</v>
@@ -3999,13 +4035,13 @@
         <v>1736575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4056,13 @@
         <v>229913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -4035,13 +4071,13 @@
         <v>132234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>275</v>
@@ -4050,13 +4086,13 @@
         <v>362147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4160,13 @@
         <v>609457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>970</v>
@@ -4139,13 +4175,13 @@
         <v>795073</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>1562</v>
@@ -4154,13 +4190,13 @@
         <v>1404529</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4211,13 @@
         <v>119315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -4190,13 +4226,13 @@
         <v>79298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -4205,13 +4241,13 @@
         <v>198613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4303,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4279,13 +4315,13 @@
         <v>774887</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>1404</v>
@@ -4294,13 +4330,13 @@
         <v>978588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>2258</v>
@@ -4309,13 +4345,13 @@
         <v>1753475</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4366,13 @@
         <v>190516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4345,13 +4381,13 @@
         <v>171844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -4360,13 +4396,13 @@
         <v>362360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4470,13 @@
         <v>2775971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>4926</v>
@@ -4449,13 +4485,13 @@
         <v>3369045</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>7876</v>
@@ -4464,13 +4500,13 @@
         <v>6145016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4521,13 @@
         <v>609257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
@@ -4500,13 +4536,13 @@
         <v>438519</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>863</v>
@@ -4515,13 +4551,13 @@
         <v>1047776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4613,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCF1B50-9E8A-4C86-A2CF-77473A89350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F5FE11-3997-49EC-8765-507A7C253A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{778A7FBA-323D-48BB-B319-ADD5E338725E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46D0B4B5-AE92-4DA8-B172-E337BB96E5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -70,34 +70,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>88,67%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -196,844 +196,844 @@
     <t>83,25%</t>
   </si>
   <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8C694-03BA-4AAC-BC5C-15BCF2D94E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B9B65-B3AD-42BC-98DF-1DBAF5334EFF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2508,7 +2508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28737376-43F9-4D03-845D-E8C23200266E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E4EC5-A457-432C-89B7-DF46E3E4F3F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,13 +2632,13 @@
         <v>105756</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -2647,13 +2647,13 @@
         <v>102206</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>206</v>
@@ -2662,13 +2662,13 @@
         <v>207962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2683,13 @@
         <v>10790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -2698,13 +2698,13 @@
         <v>11154</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -2713,13 +2713,13 @@
         <v>21944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2787,13 @@
         <v>466702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2802,13 +2802,13 @@
         <v>498753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>942</v>
@@ -2817,13 +2817,13 @@
         <v>965453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2838,13 @@
         <v>87661</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -2853,13 +2853,13 @@
         <v>58981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -2868,10 +2868,10 @@
         <v>146643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>160</v>
@@ -2948,7 +2948,7 @@
         <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -2957,13 +2957,13 @@
         <v>958700</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>1676</v>
@@ -2972,13 +2972,13 @@
         <v>1798739</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2993,13 @@
         <v>176232</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
@@ -3008,13 +3008,13 @@
         <v>81225</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>244</v>
@@ -3023,13 +3023,13 @@
         <v>257458</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>626351</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>667</v>
@@ -3112,13 +3112,13 @@
         <v>715383</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>1242</v>
@@ -3127,13 +3127,13 @@
         <v>1341734</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3148,13 @@
         <v>123592</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -3163,13 +3163,13 @@
         <v>68699</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>181</v>
@@ -3178,13 +3178,13 @@
         <v>192291</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3252,13 @@
         <v>777452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>821</v>
@@ -3267,13 +3267,13 @@
         <v>900142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>1596</v>
@@ -3282,13 +3282,13 @@
         <v>1677595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>155135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -3318,13 +3318,13 @@
         <v>139403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -3333,13 +3333,13 @@
         <v>294538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3407,13 @@
         <v>2816300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>2970</v>
@@ -3422,13 +3422,13 @@
         <v>3175183</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>5662</v>
@@ -3437,13 +3437,13 @@
         <v>5991483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3458,13 @@
         <v>553411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -3473,28 +3473,28 @@
         <v>359463</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>877</v>
       </c>
       <c r="N20" s="7">
-        <v>912873</v>
+        <v>912874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,7 +3536,7 @@
         <v>6539</v>
       </c>
       <c r="N21" s="7">
-        <v>6904356</v>
+        <v>6904357</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3571,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA55117A-27CC-4B70-AC2F-0074207B70D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8F7BE2-1443-4523-8355-29FF8CB1EE70}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3695,13 +3695,13 @@
         <v>97208</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>231</v>
@@ -3710,13 +3710,13 @@
         <v>120819</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>345</v>
@@ -3725,13 +3725,13 @@
         <v>218027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3746,13 @@
         <v>4774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3761,13 +3761,13 @@
         <v>9914</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3776,13 +3776,13 @@
         <v>14688</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3850,13 @@
         <v>485084</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>942</v>
@@ -3865,10 +3865,10 @@
         <v>547326</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>253</v>
@@ -3907,7 +3907,7 @@
         <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -3916,13 +3916,13 @@
         <v>45229</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -3931,13 +3931,13 @@
         <v>109968</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4005,13 @@
         <v>809335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>1379</v>
@@ -4020,13 +4020,13 @@
         <v>927240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>2205</v>
@@ -4035,13 +4035,13 @@
         <v>1736575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4056,13 @@
         <v>229913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -4071,10 +4071,10 @@
         <v>132234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>278</v>
@@ -4160,13 +4160,13 @@
         <v>609457</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>970</v>
@@ -4175,13 +4175,13 @@
         <v>795073</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>1562</v>
@@ -4190,13 +4190,13 @@
         <v>1404529</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>119315</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -4226,13 +4226,13 @@
         <v>79298</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -4241,13 +4241,13 @@
         <v>198613</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>774887</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>1404</v>
@@ -4330,13 +4330,13 @@
         <v>978588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>2258</v>
@@ -4345,13 +4345,13 @@
         <v>1753475</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>190516</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4381,13 +4381,13 @@
         <v>171844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -4396,13 +4396,13 @@
         <v>362360</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F5FE11-3997-49EC-8765-507A7C253A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9632A083-9E35-4730-B429-62032549F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46D0B4B5-AE92-4DA8-B172-E337BB96E5A5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5A258627-87A1-415E-91B3-024473A75450}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="281">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -67,973 +67,820 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B9B65-B3AD-42BC-98DF-1DBAF5334EFF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9054C765-B172-433C-8FFE-80E70D1D0E9F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1563,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>106</v>
+        <v>584</v>
       </c>
       <c r="D4" s="7">
-        <v>101470</v>
+        <v>613725</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1578,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>88</v>
+        <v>574</v>
       </c>
       <c r="I4" s="7">
-        <v>100440</v>
+        <v>617511</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1593,10 +1440,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>194</v>
+        <v>1158</v>
       </c>
       <c r="N4" s="7">
-        <v>201910</v>
+        <v>1231236</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1614,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>14295</v>
+        <v>86562</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1629,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>11465</v>
+        <v>77542</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1644,10 +1491,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="N5" s="7">
-        <v>25760</v>
+        <v>164104</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1665,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>700287</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1527,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>695053</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1542,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1319</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1395340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1718,10 +1565,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>478</v>
+        <v>774</v>
       </c>
       <c r="D7" s="7">
-        <v>512256</v>
+        <v>841473</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1733,10 +1580,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>486</v>
+        <v>826</v>
       </c>
       <c r="I7" s="7">
-        <v>517071</v>
+        <v>909959</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1748,10 +1595,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>964</v>
+        <v>1600</v>
       </c>
       <c r="N7" s="7">
-        <v>1029327</v>
+        <v>1751432</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1769,10 +1616,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D8" s="7">
-        <v>72266</v>
+        <v>169253</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1784,10 +1631,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="I8" s="7">
-        <v>66077</v>
+        <v>120260</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1799,10 +1646,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="N8" s="7">
-        <v>138343</v>
+        <v>289513</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1820,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>929</v>
       </c>
       <c r="D9" s="7">
-        <v>584522</v>
+        <v>1010726</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1835,10 +1682,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>583148</v>
+        <v>1030219</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1850,10 +1697,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1098</v>
+        <v>1867</v>
       </c>
       <c r="N9" s="7">
-        <v>1167670</v>
+        <v>2040945</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1873,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>774</v>
+        <v>580</v>
       </c>
       <c r="D10" s="7">
-        <v>841473</v>
+        <v>640644</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1888,10 +1735,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>826</v>
+        <v>632</v>
       </c>
       <c r="I10" s="7">
-        <v>909959</v>
+        <v>697764</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1903,10 +1750,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1600</v>
+        <v>1212</v>
       </c>
       <c r="N10" s="7">
-        <v>1751432</v>
+        <v>1338409</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1924,10 +1771,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="D11" s="7">
-        <v>169253</v>
+        <v>111174</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1939,10 +1786,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="I11" s="7">
-        <v>120260</v>
+        <v>74669</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1954,10 +1801,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="N11" s="7">
-        <v>289513</v>
+        <v>185843</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1975,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>929</v>
+        <v>683</v>
       </c>
       <c r="D12" s="7">
-        <v>1010726</v>
+        <v>751818</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1837,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1030219</v>
+        <v>772433</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1852,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1867</v>
+        <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>2040945</v>
+        <v>1524252</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>580</v>
+        <v>769</v>
       </c>
       <c r="D13" s="7">
-        <v>640644</v>
+        <v>807422</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2043,10 +1890,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>632</v>
+        <v>906</v>
       </c>
       <c r="I13" s="7">
-        <v>697764</v>
+        <v>953172</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2058,10 +1905,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1212</v>
+        <v>1675</v>
       </c>
       <c r="N13" s="7">
-        <v>1338409</v>
+        <v>1760594</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2079,10 +1926,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D14" s="7">
-        <v>111174</v>
+        <v>133124</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2094,10 +1941,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I14" s="7">
-        <v>74669</v>
+        <v>93858</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2109,10 +1956,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="N14" s="7">
-        <v>185843</v>
+        <v>226982</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2130,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>683</v>
+        <v>903</v>
       </c>
       <c r="D15" s="7">
-        <v>751818</v>
+        <v>940546</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1992,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>998</v>
       </c>
       <c r="I15" s="7">
-        <v>772433</v>
+        <v>1047030</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2160,10 +2007,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1385</v>
+        <v>1901</v>
       </c>
       <c r="N15" s="7">
-        <v>1524252</v>
+        <v>1987576</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2177,55 +2024,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>769</v>
+        <v>2707</v>
       </c>
       <c r="D16" s="7">
-        <v>807422</v>
+        <v>2903265</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2938</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3178406</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>906</v>
-      </c>
-      <c r="I16" s="7">
-        <v>953172</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5645</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6081671</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1675</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1760594</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2081,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>134</v>
+        <v>479</v>
       </c>
       <c r="D17" s="7">
-        <v>133124</v>
+        <v>500113</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>348</v>
+      </c>
+      <c r="I17" s="7">
+        <v>366329</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>92</v>
-      </c>
-      <c r="I17" s="7">
-        <v>93858</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>827</v>
+      </c>
+      <c r="N17" s="7">
+        <v>866442</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>226</v>
-      </c>
-      <c r="N17" s="7">
-        <v>226982</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>903</v>
+        <v>3186</v>
       </c>
       <c r="D18" s="7">
-        <v>940546</v>
+        <v>3403378</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2147,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>998</v>
+        <v>3286</v>
       </c>
       <c r="I18" s="7">
-        <v>1047030</v>
+        <v>3544735</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2162,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1901</v>
+        <v>6472</v>
       </c>
       <c r="N18" s="7">
-        <v>1987576</v>
+        <v>6948113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2331,171 +2178,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2707</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2903265</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2938</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3178406</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5645</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6081670</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>479</v>
-      </c>
-      <c r="D20" s="7">
-        <v>500113</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>348</v>
-      </c>
-      <c r="I20" s="7">
-        <v>366329</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>827</v>
-      </c>
-      <c r="N20" s="7">
-        <v>866442</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3186</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3403378</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3286</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544735</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6472</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6948112</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2508,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E4EC5-A457-432C-89B7-DF46E3E4F3F1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC866A55-41CD-456D-A373-EB91342BC16D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2525,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2626,49 +2317,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>103</v>
+        <v>556</v>
       </c>
       <c r="D4" s="7">
-        <v>105756</v>
+        <v>572458</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>103</v>
+        <v>592</v>
       </c>
       <c r="I4" s="7">
-        <v>102206</v>
+        <v>600958</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>206</v>
+        <v>1148</v>
       </c>
       <c r="N4" s="7">
-        <v>207962</v>
+        <v>1173416</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2368,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>10790</v>
+        <v>98451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7">
-        <v>11154</v>
+        <v>70135</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="N5" s="7">
-        <v>21944</v>
+        <v>168586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2419,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>649</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>670909</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2743,10 +2434,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>664</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>671093</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2758,10 +2449,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1313</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1342002</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2781,49 +2472,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>453</v>
+        <v>786</v>
       </c>
       <c r="D7" s="7">
-        <v>466702</v>
+        <v>840040</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>489</v>
+        <v>890</v>
       </c>
       <c r="I7" s="7">
-        <v>498753</v>
+        <v>958700</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>942</v>
+        <v>1676</v>
       </c>
       <c r="N7" s="7">
-        <v>965453</v>
+        <v>1798739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,49 +2523,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>87661</v>
+        <v>176232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>58981</v>
+        <v>81225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
+        <v>244</v>
+      </c>
+      <c r="N8" s="7">
+        <v>257458</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="N8" s="7">
-        <v>146643</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,10 +2574,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>536</v>
+        <v>946</v>
       </c>
       <c r="D9" s="7">
-        <v>554363</v>
+        <v>1016272</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2898,10 +2589,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>557734</v>
+        <v>1039925</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2913,10 +2604,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1085</v>
+        <v>1920</v>
       </c>
       <c r="N9" s="7">
-        <v>1112096</v>
+        <v>2056197</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2936,49 +2627,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>786</v>
+        <v>575</v>
       </c>
       <c r="D10" s="7">
-        <v>840040</v>
+        <v>626351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
+        <v>667</v>
+      </c>
+      <c r="I10" s="7">
+        <v>715383</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1242</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1341734</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="H10" s="7">
-        <v>890</v>
-      </c>
-      <c r="I10" s="7">
-        <v>958700</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1676</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1798739</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2678,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>113</v>
+      </c>
+      <c r="D11" s="7">
+        <v>123592</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
+        <v>68</v>
+      </c>
+      <c r="I11" s="7">
+        <v>68699</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="7">
+        <v>181</v>
+      </c>
+      <c r="N11" s="7">
+        <v>192291</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="7">
-        <v>176232</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="7">
-        <v>84</v>
-      </c>
-      <c r="I11" s="7">
-        <v>81225</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M11" s="7">
-        <v>244</v>
-      </c>
-      <c r="N11" s="7">
-        <v>257458</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>946</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1016272</v>
+        <v>749943</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2744,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>735</v>
       </c>
       <c r="I12" s="7">
-        <v>1039925</v>
+        <v>784082</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2759,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1920</v>
+        <v>1423</v>
       </c>
       <c r="N12" s="7">
-        <v>2056197</v>
+        <v>1534025</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2782,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="D13" s="7">
-        <v>626351</v>
+        <v>777452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
-        <v>667</v>
+        <v>821</v>
       </c>
       <c r="I13" s="7">
-        <v>715383</v>
+        <v>900142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>1242</v>
+        <v>1596</v>
       </c>
       <c r="N13" s="7">
-        <v>1341734</v>
+        <v>1677595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2833,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D14" s="7">
-        <v>123592</v>
+        <v>155135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>68699</v>
+        <v>139403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="N14" s="7">
-        <v>192291</v>
+        <v>294538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>928</v>
       </c>
       <c r="D15" s="7">
-        <v>749943</v>
+        <v>932587</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2899,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>735</v>
+        <v>955</v>
       </c>
       <c r="I15" s="7">
-        <v>784082</v>
+        <v>1039545</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2914,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1423</v>
+        <v>1883</v>
       </c>
       <c r="N15" s="7">
-        <v>1534025</v>
+        <v>1972133</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3240,55 +2931,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>775</v>
+        <v>2692</v>
       </c>
       <c r="D16" s="7">
-        <v>777452</v>
+        <v>2816300</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>821</v>
+        <v>2970</v>
       </c>
       <c r="I16" s="7">
-        <v>900142</v>
+        <v>3175183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>1596</v>
+        <v>5662</v>
       </c>
       <c r="N16" s="7">
-        <v>1677595</v>
+        <v>5991483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2988,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>153</v>
+        <v>519</v>
       </c>
       <c r="D17" s="7">
-        <v>155135</v>
+        <v>553411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="I17" s="7">
-        <v>139403</v>
+        <v>359463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>287</v>
+        <v>877</v>
       </c>
       <c r="N17" s="7">
-        <v>294538</v>
+        <v>912874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>928</v>
+        <v>3211</v>
       </c>
       <c r="D18" s="7">
-        <v>932587</v>
+        <v>3369711</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3054,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>955</v>
+        <v>3328</v>
       </c>
       <c r="I18" s="7">
-        <v>1039545</v>
+        <v>3534646</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3069,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1883</v>
+        <v>6539</v>
       </c>
       <c r="N18" s="7">
-        <v>1972133</v>
+        <v>6904357</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3394,171 +3085,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2692</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2816300</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2970</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3175183</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5662</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5991483</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>519</v>
-      </c>
-      <c r="D20" s="7">
-        <v>553411</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>358</v>
-      </c>
-      <c r="I20" s="7">
-        <v>359463</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>877</v>
-      </c>
-      <c r="N20" s="7">
-        <v>912874</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3211</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3369711</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3328</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3534646</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6539</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6904357</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3571,8 +3106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8F7BE2-1443-4523-8355-29FF8CB1EE70}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF4A476-B0A0-46FC-9219-21705298D81D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3588,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3689,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>114</v>
+        <v>678</v>
       </c>
       <c r="D4" s="7">
-        <v>97208</v>
+        <v>569771</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
-        <v>231</v>
+        <v>1173</v>
       </c>
       <c r="I4" s="7">
-        <v>120819</v>
+        <v>626872</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>345</v>
+        <v>1851</v>
       </c>
       <c r="N4" s="7">
-        <v>218027</v>
+        <v>1196644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +3275,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7">
-        <v>4774</v>
+        <v>65670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I5" s="7">
-        <v>9914</v>
+        <v>48498</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="N5" s="7">
-        <v>14688</v>
+        <v>114167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3806,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3821,10 +3356,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3844,49 +3379,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>564</v>
+        <v>826</v>
       </c>
       <c r="D7" s="7">
-        <v>485084</v>
+        <v>783342</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>942</v>
+        <v>1379</v>
       </c>
       <c r="I7" s="7">
-        <v>547326</v>
+        <v>847716</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>1506</v>
+        <v>2205</v>
       </c>
       <c r="N7" s="7">
-        <v>1032410</v>
+        <v>1631059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,49 +3430,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D8" s="7">
-        <v>64739</v>
+        <v>409522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="I8" s="7">
-        <v>45229</v>
+        <v>110390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="N8" s="7">
-        <v>109968</v>
+        <v>519912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3961,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3976,10 +3511,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3999,49 +3534,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>826</v>
+        <v>592</v>
       </c>
       <c r="D10" s="7">
-        <v>809335</v>
+        <v>588628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
-        <v>1379</v>
+        <v>970</v>
       </c>
       <c r="I10" s="7">
-        <v>927240</v>
+        <v>863233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1562</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1451862</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2205</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1736575</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3585,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7">
-        <v>229913</v>
+        <v>116052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7">
-        <v>132234</v>
+        <v>70133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
-        <v>362147</v>
+        <v>186184</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3651,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3666,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3689,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>592</v>
+        <v>854</v>
       </c>
       <c r="D13" s="7">
-        <v>609457</v>
+        <v>744797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>970</v>
+        <v>1404</v>
       </c>
       <c r="I13" s="7">
-        <v>795073</v>
+        <v>893143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>1562</v>
+        <v>2258</v>
       </c>
       <c r="N13" s="7">
-        <v>1404529</v>
+        <v>1637940</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3740,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="D14" s="7">
-        <v>119315</v>
+        <v>182034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="I14" s="7">
-        <v>79298</v>
+        <v>201789</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="N14" s="7">
-        <v>198613</v>
+        <v>383823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3791,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3806,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3821,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4303,55 +3838,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>854</v>
+        <v>2950</v>
       </c>
       <c r="D16" s="7">
-        <v>774887</v>
+        <v>2686540</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>1404</v>
+        <v>4926</v>
       </c>
       <c r="I16" s="7">
-        <v>978588</v>
+        <v>3230964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>2258</v>
+        <v>7876</v>
       </c>
       <c r="N16" s="7">
-        <v>1753475</v>
+        <v>5917504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3895,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>152</v>
+        <v>426</v>
       </c>
       <c r="D17" s="7">
-        <v>190516</v>
+        <v>773277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>158</v>
+        <v>437</v>
       </c>
       <c r="I17" s="7">
-        <v>171844</v>
+        <v>430810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>310</v>
+        <v>863</v>
       </c>
       <c r="N17" s="7">
-        <v>362360</v>
+        <v>1204087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5363</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3661774</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3976,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8739</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7121591</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4457,171 +3992,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2950</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2775971</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4926</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3369045</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7876</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6145016</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>426</v>
-      </c>
-      <c r="D20" s="7">
-        <v>609257</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>437</v>
-      </c>
-      <c r="I20" s="7">
-        <v>438519</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>863</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1047776</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5363</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3807564</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8739</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7192792</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
